--- a/data_annual/new_pesticide_usage_2001.xlsx
+++ b/data_annual/new_pesticide_usage_2001.xlsx
@@ -7,8 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="oil crops" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tuber crops" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Groundnut" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Maize" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="oil crops" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Other Fibre Crops" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pulses" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rice" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Soybean" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tuber crops" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wheat" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +433,348 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Pesticide Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Annual Usage (t/year)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Imidacloprid</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1071.03031814966</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pyridaben</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>743.5434186450407</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Indoxacarb</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>131.6639341296599</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Zeta-cypermethrin</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>99.77657508263243</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Dichlorvos</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>114.2816099827728</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>chlorothalonil</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>44.74610268021171</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Fipronil</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>306.6025082582351</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>abamectin</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7.20186033766137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Pesticide Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Annual Usage (t/year)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Thiosultap-monosodium</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>220.6552260397401</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cyhalothrin</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10.84469880782521</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Fenvalerate</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9624.597797955266</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Methomyl</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>74.37406391819857</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Atrazine</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>58172.46458222254</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Omethoate</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2286.479092442219</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Zeta-cypermethrin</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>668.1784938325633</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Dimethoate</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>881.7830337066025</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Phoxim</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>786.2044421112087</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cypermethrin</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>451.7377109446244</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Phorate</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>184.7369109879256</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Diniconazole</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>601.9355034657249</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Imidacloprid</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>181.580145163842</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Thiosultap-disodium</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>133.248913344015</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>abamectin</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>104.0896094738996</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Isoprocarb</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>95.93921760769082</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Pyridaben</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>94.56083162632127</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Deltamethrin</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>73.05834611601603</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Trichlorfon</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>55.78054793864899</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Malathion</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1791.824787519639</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -501,7 +850,741 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Pesticide Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Annual Usage (t/year)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Mancozeb</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>529.0360511403869</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Phoxim</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1182.263974662096</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Deltamethrin</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1012.804376155293</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Imidacloprid</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1117.965407619072</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Carbendazim</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>364.8837867959966</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Thiosultap-disodium</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>398.2231152239792</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Alpha-cypermethrin</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>384.6310687762145</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Triadimefon</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>125.2980121121971</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>chlorothalonil</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>125.2980121121971</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>abamectin</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>216.042001432889</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Indoxacarb</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>110.1735297204122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Validamycin</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>35.93616597384538</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Procymidone</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17.70273955247081</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Zeta-cypermethrin</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.040619006816236</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Pesticide Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Annual Usage (t/year)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Imidacloprid</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>303.9026281094081</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Trichlorfon</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>192.8406805864636</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Carbendazim</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>36.24413778178732</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>abamectin</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>30.70979287927701</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Triadimefon</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10.12730010903202</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Dimethoate</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>24.12361780081728</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lambda-cyhalothrin</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.711234531385531</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Pesticide Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Annual Usage (t/year)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Tricyclazole</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>58.46859203418897</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Profenofos</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1483.664469939762</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Carbofuran</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>86.47110770960629</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thiosultap-disodium</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>60127.94370408667</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Validamycin</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4351.193022426679</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Dichlorvos</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7338.211553906453</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Imidacloprid</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4727.844965191595</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Triazophos</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4547.733482839908</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Bacillusthuringiensis</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4453.539664811571</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>abamectin</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3201.554078505252</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Phoxim</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2419.733843355904</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Carbendazim</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>472.8970849400837</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Isoprocarb</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>634.5336354838616</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Deltamethrin</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>407.6815458747417</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Pyridaben</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>398.6044998756921</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Buprofezin</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>316.5434868368849</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Cypermethrin</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>286.4712354828906</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Isoprothiolane</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>866.7442063754892</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>chlorothalonil</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>84.57240143518172</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Cyhalothrin</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>15.75873930417877</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Zeta-cypermethrin</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>46.35243985252578</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Mancozeb</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>26.73217887443581</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Bismerthiazol</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>180.4006763482193</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fenvalerate</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>27.62807045492544</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Alpha-cypermethrin</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>14.09706611213185</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Methomyl</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5927233596305848</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Phorate</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>977.9935433904649</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Fenpropathrin</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>8.87983614030524</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Matrine</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.6252304974691244</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Metolcarb</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>640.505329893375</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Malathion</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>29.05429219042768</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Pesticide Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Annual Usage (t/year)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Quizalofop-ethyl</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18.62671273946218</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mancozeb</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1183.166396160364</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Imidacloprid</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2422.187020918695</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cypermethrin</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1210.285093156365</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Dimethoate</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1321.97850995518</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pyridaben</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1198.656513692969</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>abamectin</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1066.459005186918</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Validamycin</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>48.598619720583</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Zeta-cypermethrin</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>67.03117439019866</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -590,4 +1673,215 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Pesticide Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Annual Usage (t/year)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Omethoate</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8575.664372131459</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Dimethoate</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3681.448333640382</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Imidacloprid</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>915.6460962383458</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Triadimefon</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>357.71249045282</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Thiram</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>140.4964777489133</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Zeta-cypermethrin</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>159.2525464231342</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Atrazine</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>730.8615938667112</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Diniconazole</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>692.9542391981544</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Carbendazim</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>118.747266534703</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cypermethrin</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>142.2494106995991</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>abamectin</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>26.50257325874763</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pyridaben</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>16.74157002290228</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Deltamethrin</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2.623038778857855</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Cyhalothrin</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>237.2715995871788</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fenvalerate</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1522.606945587938</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Phorate</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>485.0826581980521</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fenpropathrin</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10.17558146970718</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Malathion</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>124.0408916279217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>